--- a/src/s02/S02E03.xlsx
+++ b/src/s02/S02E03.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriano.PC-Adriano-HEFR\Documents\EIA\1ère année - 2014-2015\Semestre 2\Algorithmique_1\Series_Exercices\src\s02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16704" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +46,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -90,9 +95,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -101,6 +112,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,34 +448,34 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -476,7 +495,7 @@
         <v>1.56E-10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -496,7 +515,7 @@
         <v>6.6500000000000003E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -516,7 +535,7 @@
         <v>4.2222222222222221E-11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -536,7 +555,7 @@
         <v>3.2234375E-11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -556,7 +575,7 @@
         <v>2.5600000000000001E-11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6000</v>
       </c>
